--- a/files/tutores/dni_tutores.xlsx
+++ b/files/tutores/dni_tutores.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chatbot_santa_lucia\files\identidades\secundaria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chatbot_santa_lucia\files\tutores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCC8AF8-DA79-4D07-BE0B-9F45EAF446FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54B97E0-22AF-4C93-921E-AEFFC18E414E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1a" sheetId="1" r:id="rId1"/>
+    <sheet name="dni_tutores" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,9 +55,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,20 +336,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530B666C-EFE0-4C17-9EF7-5A715FD19CDC}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1">
         <v>41550112</v>
       </c>
     </row>
@@ -359,6 +355,11 @@
         <v>21903130</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20771757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
